--- a/docs/scenario-test/report-profiler-test.xlsx
+++ b/docs/scenario-test/report-profiler-test.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faisalamir/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faisalamir/StudioProjects/nutrition-framework/docs/scenario-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB4411B5-EBEA-0D44-94AC-AB2F90BDC33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3202DE72-9646-A542-9E2B-4E141B6E2F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16360" xr2:uid="{7E03A50A-C549-074D-8274-00A4633FAC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Profiler Performance Test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="68">
   <si>
     <t>No</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Memory Usage</t>
   </si>
   <si>
-    <t>Network Usage</t>
-  </si>
-  <si>
     <t>Energy Usage</t>
   </si>
   <si>
@@ -104,13 +101,148 @@
   </si>
   <si>
     <t>nf-testcase-googlesample-consume-library</t>
+  </si>
+  <si>
+    <t>289.4 MB</t>
+  </si>
+  <si>
+    <t>Network Usage Send</t>
+  </si>
+  <si>
+    <t>Network Usage Received</t>
+  </si>
+  <si>
+    <t>0.1 MB/s</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>1 second</t>
+  </si>
+  <si>
+    <t>0 MB/s</t>
+  </si>
+  <si>
+    <t>0.2 second</t>
+  </si>
+  <si>
+    <t>222.6 MB</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>1.7 second</t>
+  </si>
+  <si>
+    <t>243.9 MB</t>
+  </si>
+  <si>
+    <t>0.6 MB/s</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1.5 second</t>
+  </si>
+  <si>
+    <t>0.3 second</t>
+  </si>
+  <si>
+    <t>0 Mb/s</t>
+  </si>
+  <si>
+    <t>257.8 MB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/amirisback/nf-testcase-app-consume-library </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/amirisback/nf-testcase-googlesample-consume-library </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/amirisback/nf-testcase-googlesample </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/amirisback/nf-testcase-app-no-framework  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/amirisback/nutrition-framework </t>
+  </si>
+  <si>
+    <t>92.6 MB</t>
+  </si>
+  <si>
+    <t>2.6 KB/s</t>
+  </si>
+  <si>
+    <t>7.3 KB/s</t>
+  </si>
+  <si>
+    <t>136.1 MB</t>
+  </si>
+  <si>
+    <t>10.6 KB/s</t>
+  </si>
+  <si>
+    <t>298.6 KB/s</t>
+  </si>
+  <si>
+    <t>87.7 MB</t>
+  </si>
+  <si>
+    <t>0.9 KB/s</t>
+  </si>
+  <si>
+    <t>24.1 KB/s</t>
+  </si>
+  <si>
+    <t>120 MB</t>
+  </si>
+  <si>
+    <t>1.7 KB/s</t>
+  </si>
+  <si>
+    <t>6.8 KB/s</t>
+  </si>
+  <si>
+    <t>1.3 second</t>
+  </si>
+  <si>
+    <t>168.3 MB</t>
+  </si>
+  <si>
+    <t>4.6 KB/s</t>
+  </si>
+  <si>
+    <t>201.2 KB/s</t>
+  </si>
+  <si>
+    <t>87.3 MB</t>
+  </si>
+  <si>
+    <t>2.3 KB/s</t>
+  </si>
+  <si>
+    <t>24.7 KB/s</t>
+  </si>
+  <si>
+    <t>1.6 second</t>
+  </si>
+  <si>
+    <t>3.2 second</t>
+  </si>
+  <si>
+    <t>4.5 second</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,6 +252,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -175,10 +315,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -197,8 +338,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -511,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6DA4F33-EC3E-6748-BF1E-B996DB46697B}">
-  <dimension ref="B2:I61"/>
+  <dimension ref="B2:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J84" sqref="J84"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,34 +688,39 @@
     <col min="2" max="2" width="6.83203125" customWidth="1"/>
     <col min="3" max="3" width="36.83203125" customWidth="1"/>
     <col min="4" max="4" width="18.83203125" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" customWidth="1"/>
-    <col min="9" max="9" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C4" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,152 +737,262 @@
         <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="4">
         <v>5</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="4">
         <v>6</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="4">
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="4">
         <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
         <v>19</v>
       </c>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F16" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>0</v>
       </c>
@@ -728,152 +1009,218 @@
         <v>4</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>2</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
         <v>3</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="4">
         <v>5</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="4">
         <v>6</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="4">
         <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="4">
         <v>8</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C28" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>0</v>
       </c>
@@ -890,152 +1237,198 @@
         <v>4</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
         <v>1</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
         <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
         <v>3</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="E32" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
         <v>4</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="4">
         <v>5</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="4">
         <v>6</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J35" s="11"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="4">
         <v>7</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J36" s="12"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="4">
         <v>8</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J37" s="11"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C40" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>0</v>
       </c>
@@ -1052,152 +1445,198 @@
         <v>4</v>
       </c>
       <c r="G41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="J41" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="2">
         <v>1</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="10"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" s="2">
         <v>2</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="2">
         <v>3</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="10"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" s="2">
         <v>4</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" s="2"/>
+      <c r="J45" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B46" s="4">
         <v>5</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J46" s="12"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47" s="4">
         <v>6</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B48" s="4">
         <v>7</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J48" s="12"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49" s="4">
         <v>8</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C52" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>0</v>
       </c>
@@ -1214,148 +1653,198 @@
         <v>4</v>
       </c>
       <c r="G53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="J53" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I53" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B54" s="2">
         <v>1</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="10"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55" s="2">
         <v>2</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I55" s="2"/>
+      <c r="J55" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" s="2">
         <v>3</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="10"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B57" s="2">
         <v>4</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57" s="2"/>
+      <c r="J57" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B58" s="4">
         <v>5</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J58" s="12"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B59" s="4">
         <v>6</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B60" s="4">
         <v>7</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J60" s="12"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B61" s="4">
         <v>8</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B2:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F16" r:id="rId1" xr:uid="{9E0E008D-6EBE-784C-B319-0C6753AEE42D}"/>
+    <hyperlink ref="F52" r:id="rId2" xr:uid="{9CF4E454-CB89-A646-B52C-D51284CD97FD}"/>
+    <hyperlink ref="F40" r:id="rId3" xr:uid="{808A3B86-7656-2549-9A52-058C841349E2}"/>
+    <hyperlink ref="F28" r:id="rId4" xr:uid="{63955811-BDF5-724A-BE21-FAE7B0D76BED}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{13CE366F-FED1-2248-A5D4-88A1456F74AD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/scenario-test/report-profiler-test.xlsx
+++ b/docs/scenario-test/report-profiler-test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faisalamir/StudioProjects/nutrition-framework/docs/scenario-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3202DE72-9646-A542-9E2B-4E141B6E2F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8E691E-C3B3-EE43-BB8F-FD833F85CA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16360" xr2:uid="{7E03A50A-C549-074D-8274-00A4633FAC87}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{7E03A50A-C549-074D-8274-00A4633FAC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Profiler Performance Test" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="102">
   <si>
     <t>No</t>
   </si>
@@ -236,13 +236,115 @@
   </si>
   <si>
     <t>4.5 second</t>
+  </si>
+  <si>
+    <t>62.7 MB</t>
+  </si>
+  <si>
+    <t>11.8 KB/s</t>
+  </si>
+  <si>
+    <t>108.9 KB/s</t>
+  </si>
+  <si>
+    <t>2 second</t>
+  </si>
+  <si>
+    <t>69 MB</t>
+  </si>
+  <si>
+    <t>2 KB/s</t>
+  </si>
+  <si>
+    <t>48.3 KB/s</t>
+  </si>
+  <si>
+    <t>5 second</t>
+  </si>
+  <si>
+    <t>154.1 MB</t>
+  </si>
+  <si>
+    <t>13.3 KB/s</t>
+  </si>
+  <si>
+    <t>249.9 KB/s</t>
+  </si>
+  <si>
+    <t>3 second</t>
+  </si>
+  <si>
+    <t>162.1 MB</t>
+  </si>
+  <si>
+    <t>7.6 KB/s</t>
+  </si>
+  <si>
+    <t>485.8 KB/s</t>
+  </si>
+  <si>
+    <t>5.5 second</t>
+  </si>
+  <si>
+    <t>76.1 MB</t>
+  </si>
+  <si>
+    <t>15 KB/s</t>
+  </si>
+  <si>
+    <t>301.5 KB/s</t>
+  </si>
+  <si>
+    <t>85.9 MB</t>
+  </si>
+  <si>
+    <t>18.5 KB/s</t>
+  </si>
+  <si>
+    <t>377 KB/s</t>
+  </si>
+  <si>
+    <t>3.5 second</t>
+  </si>
+  <si>
+    <t>138.7 MB</t>
+  </si>
+  <si>
+    <t>8.1 KB/s</t>
+  </si>
+  <si>
+    <t>101.6 KB/s</t>
+  </si>
+  <si>
+    <t>99.2 MB</t>
+  </si>
+  <si>
+    <t>318.8 KB/s</t>
+  </si>
+  <si>
+    <t>152.8 MB</t>
+  </si>
+  <si>
+    <t>4.5 KB/s</t>
+  </si>
+  <si>
+    <t>308.7 KB/s</t>
+  </si>
+  <si>
+    <t>115.8 MB</t>
+  </si>
+  <si>
+    <t>26.7 KB/s</t>
+  </si>
+  <si>
+    <t>465.8 KB/s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -260,6 +362,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -319,7 +429,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -358,6 +468,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -679,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6DA4F33-EC3E-6748-BF1E-B996DB46697B}">
   <dimension ref="B2:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -697,17 +810,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C4" s="7" t="s">
@@ -1351,14 +1464,24 @@
       <c r="D34" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="12"/>
+      <c r="E34" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>70</v>
+      </c>
       <c r="I34" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J34" s="12"/>
+      <c r="J34" s="12" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="4">
@@ -1389,14 +1512,24 @@
       <c r="D36" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
+      <c r="E36" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>74</v>
+      </c>
       <c r="I36" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J36" s="12"/>
+      <c r="J36" s="12" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="4">
@@ -1467,12 +1600,24 @@
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="10"/>
+      <c r="E42" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" s="2">
@@ -1486,16 +1631,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
       <c r="I43" s="2"/>
-      <c r="J43" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="J43" s="10"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="2">
@@ -1507,12 +1646,24 @@
       <c r="D44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="10"/>
+      <c r="E44" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" s="2">
@@ -1526,16 +1677,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
       <c r="I45" s="2"/>
-      <c r="J45" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="J45" s="15"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B46" s="4">
@@ -1547,14 +1692,24 @@
       <c r="D46" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="12"/>
+      <c r="E46" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>86</v>
+      </c>
       <c r="I46" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J46" s="12"/>
+      <c r="J46" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47" s="4">
@@ -1568,18 +1723,12 @@
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
       <c r="I47" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J47" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="J47" s="11"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B48" s="4">
@@ -1591,14 +1740,24 @@
       <c r="D48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
+      <c r="E48" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>89</v>
+      </c>
       <c r="I48" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J48" s="12"/>
+      <c r="J48" s="12" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49" s="4">
@@ -1612,18 +1771,12 @@
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
-      <c r="G49" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
       <c r="I49" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J49" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="J49" s="11"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C52" s="7" t="s">
@@ -1675,12 +1828,24 @@
       <c r="D54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="10"/>
+      <c r="E54" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55" s="2">
@@ -1694,16 +1859,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-      <c r="G55" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
       <c r="I55" s="2"/>
-      <c r="J55" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="J55" s="10"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" s="2">
@@ -1715,11 +1874,21 @@
       <c r="D56" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="2"/>
+      <c r="E56" s="8">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="J56" s="10"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
@@ -1734,16 +1903,10 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
-      <c r="G57" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
       <c r="I57" s="2"/>
-      <c r="J57" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="J57" s="10"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B58" s="4">
@@ -1755,14 +1918,24 @@
       <c r="D58" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="12"/>
+      <c r="E58" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>95</v>
+      </c>
       <c r="I58" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J58" s="12"/>
+      <c r="J58" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B59" s="4">
@@ -1776,18 +1949,12 @@
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
-      <c r="G59" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H59" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
       <c r="I59" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J59" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="J59" s="11"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B60" s="4">
@@ -1799,10 +1966,18 @@
       <c r="D60" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
+      <c r="E60" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>101</v>
+      </c>
       <c r="I60" s="13" t="s">
         <v>36</v>
       </c>
@@ -1820,18 +1995,12 @@
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
-      <c r="G61" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H61" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
       <c r="I61" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J61" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="J61" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/scenario-test/report-profiler-test.xlsx
+++ b/docs/scenario-test/report-profiler-test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faisalamir/StudioProjects/nutrition-framework/docs/scenario-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8E691E-C3B3-EE43-BB8F-FD833F85CA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6948BF4C-D808-724F-BBBE-69ED764137D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{7E03A50A-C549-074D-8274-00A4633FAC87}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="110">
   <si>
     <t>No</t>
   </si>
@@ -338,13 +338,37 @@
   </si>
   <si>
     <t>465.8 KB/s</t>
+  </si>
+  <si>
+    <t>0.26 second</t>
+  </si>
+  <si>
+    <t>0.32 second</t>
+  </si>
+  <si>
+    <t>0.64 second</t>
+  </si>
+  <si>
+    <t>0.9 second</t>
+  </si>
+  <si>
+    <t>0.4 second</t>
+  </si>
+  <si>
+    <t>0.6 second</t>
+  </si>
+  <si>
+    <t>1.1 second</t>
+  </si>
+  <si>
+    <t>0.7 second</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -362,14 +386,6 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -469,11 +485,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -792,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6DA4F33-EC3E-6748-BF1E-B996DB46697B}">
   <dimension ref="B2:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -810,17 +826,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C4" s="7" t="s">
@@ -829,7 +845,7 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="G4" s="14" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1101,7 +1117,7 @@
       <c r="D16" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="G16" s="14" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1173,12 +1189,24 @@
       <c r="D19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="10"/>
+      <c r="E19" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
@@ -1219,12 +1247,24 @@
       <c r="D21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="10"/>
+      <c r="E21" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="4">
@@ -1265,14 +1305,24 @@
       <c r="D23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+      <c r="E23" s="9">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="I23" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J23" s="11"/>
+      <c r="J23" s="11" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="4">
@@ -1313,14 +1363,24 @@
       <c r="D25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="E25" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="I25" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J25" s="11"/>
+      <c r="J25" s="11" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C28" s="7" t="s">
@@ -1329,7 +1389,7 @@
       <c r="D28" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="G28" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1401,12 +1461,24 @@
       <c r="D31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="10"/>
+      <c r="E31" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
@@ -1447,12 +1519,24 @@
       <c r="D33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="10"/>
+      <c r="E33" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="4">
@@ -1493,14 +1577,24 @@
       <c r="D35" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
+      <c r="E35" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="I35" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J35" s="11"/>
+      <c r="J35" s="11" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="4">
@@ -1541,14 +1635,24 @@
       <c r="D37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
+      <c r="E37" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="I37" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J37" s="11"/>
+      <c r="J37" s="11" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C40" s="7" t="s">
@@ -1557,7 +1661,7 @@
       <c r="D40" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="14" t="s">
+      <c r="G40" s="14" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1629,12 +1733,24 @@
       <c r="D43" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="10"/>
+      <c r="E43" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="2">
@@ -1675,12 +1791,24 @@
       <c r="D45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="15"/>
+      <c r="E45" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J45" s="16" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B46" s="4">
@@ -1721,14 +1849,24 @@
       <c r="D47" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
+      <c r="E47" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="I47" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J47" s="11"/>
+      <c r="J47" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B48" s="4">
@@ -1769,14 +1907,24 @@
       <c r="D49" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
+      <c r="E49" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="I49" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J49" s="11"/>
+      <c r="J49" s="11" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C52" s="7" t="s">
@@ -1785,7 +1933,7 @@
       <c r="D52" t="s">
         <v>22</v>
       </c>
-      <c r="F52" s="14" t="s">
+      <c r="G52" s="14" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1857,12 +2005,24 @@
       <c r="D55" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="10"/>
+      <c r="E55" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" s="2">
@@ -1889,7 +2049,9 @@
       <c r="I56" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J56" s="10"/>
+      <c r="J56" s="10" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B57" s="2">
@@ -1901,12 +2063,24 @@
       <c r="D57" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="10"/>
+      <c r="E57" s="8">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B58" s="4">
@@ -1947,14 +2121,24 @@
       <c r="D59" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
+      <c r="E59" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="I59" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J59" s="11"/>
+      <c r="J59" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B60" s="4">
@@ -1981,7 +2165,9 @@
       <c r="I60" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J60" s="12"/>
+      <c r="J60" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B61" s="4">
@@ -1993,14 +2179,24 @@
       <c r="D61" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
+      <c r="E61" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="I61" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J61" s="11"/>
+      <c r="J61" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2008,11 +2204,11 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F16" r:id="rId1" xr:uid="{9E0E008D-6EBE-784C-B319-0C6753AEE42D}"/>
-    <hyperlink ref="F52" r:id="rId2" xr:uid="{9CF4E454-CB89-A646-B52C-D51284CD97FD}"/>
-    <hyperlink ref="F40" r:id="rId3" xr:uid="{808A3B86-7656-2549-9A52-058C841349E2}"/>
-    <hyperlink ref="F28" r:id="rId4" xr:uid="{63955811-BDF5-724A-BE21-FAE7B0D76BED}"/>
-    <hyperlink ref="F4" r:id="rId5" xr:uid="{13CE366F-FED1-2248-A5D4-88A1456F74AD}"/>
+    <hyperlink ref="G16" r:id="rId1" xr:uid="{9E0E008D-6EBE-784C-B319-0C6753AEE42D}"/>
+    <hyperlink ref="G52" r:id="rId2" xr:uid="{9CF4E454-CB89-A646-B52C-D51284CD97FD}"/>
+    <hyperlink ref="G40" r:id="rId3" xr:uid="{808A3B86-7656-2549-9A52-058C841349E2}"/>
+    <hyperlink ref="G28" r:id="rId4" xr:uid="{63955811-BDF5-724A-BE21-FAE7B0D76BED}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{13CE366F-FED1-2248-A5D4-88A1456F74AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/scenario-test/report-profiler-test.xlsx
+++ b/docs/scenario-test/report-profiler-test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faisalamir/StudioProjects/nutrition-framework/docs/scenario-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6948BF4C-D808-724F-BBBE-69ED764137D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3752102-331D-2646-862E-773B935B3A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{7E03A50A-C549-074D-8274-00A4633FAC87}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" activeTab="1" xr2:uid="{7E03A50A-C549-074D-8274-00A4633FAC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Profiler Performance Test" sheetId="1" r:id="rId1"/>
+    <sheet name="Grouping by metric" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="113">
   <si>
     <t>No</t>
   </si>
@@ -70,9 +71,6 @@
     <t>Test-Case-2-B</t>
   </si>
   <si>
-    <t>Redmi Note 10 5G - Xiaomi M2103K19G</t>
-  </si>
-  <si>
     <t>Oppo CPH1729</t>
   </si>
   <si>
@@ -362,6 +360,18 @@
   </si>
   <si>
     <t>0.7 second</t>
+  </si>
+  <si>
+    <t>Redmi Note 10 5G</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory Usage </t>
   </si>
 </sst>
 </file>
@@ -391,7 +401,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -416,8 +426,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -440,12 +456,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -485,11 +564,57 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -806,17 +931,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6DA4F33-EC3E-6748-BF1E-B996DB46697B}">
-  <dimension ref="B2:J61"/>
+  <dimension ref="B2:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="6.83203125" customWidth="1"/>
-    <col min="3" max="3" width="36.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="3" max="4" width="18.83203125" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" style="6" customWidth="1"/>
     <col min="6" max="6" width="16.1640625" style="6" customWidth="1"/>
     <col min="7" max="7" width="20.33203125" style="7" customWidth="1"/>
@@ -826,27 +950,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="B2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
@@ -866,10 +990,10 @@
         <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>5</v>
@@ -883,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>8</v>
@@ -892,19 +1016,19 @@
         <v>0.32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
@@ -912,7 +1036,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>9</v>
@@ -921,19 +1045,19 @@
         <v>0.32</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
@@ -941,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>10</v>
@@ -950,19 +1074,19 @@
         <v>0.2</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
@@ -970,7 +1094,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>11</v>
@@ -979,19 +1103,19 @@
         <v>0.2</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="J9" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
@@ -999,7 +1123,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>8</v>
@@ -1008,19 +1132,19 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="12" t="s">
+      <c r="I10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="J10" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
@@ -1028,7 +1152,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>9</v>
@@ -1037,19 +1161,19 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
@@ -1057,7 +1181,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>10</v>
@@ -1066,19 +1190,19 @@
         <v>0.19</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="J12" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
@@ -1086,7 +1210,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>11</v>
@@ -1095,30 +1219,30 @@
         <v>0.19</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
         <v>18</v>
       </c>
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
       <c r="G16" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
@@ -1138,10 +1262,10 @@
         <v>4</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>5</v>
@@ -1155,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>8</v>
@@ -1164,19 +1288,19 @@
         <v>0.12</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="H18" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="I18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
@@ -1184,7 +1308,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>9</v>
@@ -1193,19 +1317,19 @@
         <v>0.12</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
@@ -1213,7 +1337,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>10</v>
@@ -1222,19 +1346,19 @@
         <v>0.1</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="H20" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H20" s="10" t="s">
-        <v>61</v>
-      </c>
       <c r="I20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
@@ -1242,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>11</v>
@@ -1251,19 +1375,19 @@
         <v>0.1</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
@@ -1271,7 +1395,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>8</v>
@@ -1280,19 +1404,19 @@
         <v>0</v>
       </c>
       <c r="F22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="H22" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="12" t="s">
-        <v>54</v>
-      </c>
       <c r="I22" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
@@ -1300,7 +1424,7 @@
         <v>6</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>9</v>
@@ -1309,19 +1433,19 @@
         <v>0</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
@@ -1329,7 +1453,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>10</v>
@@ -1338,19 +1462,19 @@
         <v>0.17</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="H24" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="I24" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
@@ -1358,7 +1482,7 @@
         <v>8</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>11</v>
@@ -1367,30 +1491,30 @@
         <v>0.17</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C28" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
@@ -1410,10 +1534,10 @@
         <v>4</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>5</v>
@@ -1427,7 +1551,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>8</v>
@@ -1436,19 +1560,19 @@
         <v>0.11</v>
       </c>
       <c r="F30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="H30" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H30" s="10" t="s">
-        <v>48</v>
-      </c>
       <c r="I30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
@@ -1456,7 +1580,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>9</v>
@@ -1465,19 +1589,19 @@
         <v>0.11</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
@@ -1485,7 +1609,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>10</v>
@@ -1494,19 +1618,19 @@
         <v>0.05</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="H32" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H32" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="I32" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
@@ -1514,7 +1638,7 @@
         <v>4</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>11</v>
@@ -1523,19 +1647,19 @@
         <v>0.05</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
@@ -1543,7 +1667,7 @@
         <v>5</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>8</v>
@@ -1552,19 +1676,19 @@
         <v>0.02</v>
       </c>
       <c r="F34" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="H34" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H34" s="12" t="s">
+      <c r="I34" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J34" s="12" t="s">
         <v>70</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J34" s="12" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
@@ -1572,7 +1696,7 @@
         <v>6</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>9</v>
@@ -1581,19 +1705,19 @@
         <v>0.02</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
@@ -1601,7 +1725,7 @@
         <v>7</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>10</v>
@@ -1610,19 +1734,19 @@
         <v>0.06</v>
       </c>
       <c r="F36" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G36" s="12" t="s">
+      <c r="H36" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="H36" s="12" t="s">
+      <c r="I36" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J36" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J36" s="12" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
@@ -1630,7 +1754,7 @@
         <v>8</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>11</v>
@@ -1639,30 +1763,30 @@
         <v>0.06</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C40" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
@@ -1682,10 +1806,10 @@
         <v>4</v>
       </c>
       <c r="G41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>5</v>
@@ -1699,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>8</v>
@@ -1708,19 +1832,19 @@
         <v>0.1</v>
       </c>
       <c r="F42" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G42" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="H42" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="I42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" s="10" t="s">
         <v>78</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J42" s="10" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.2">
@@ -1728,7 +1852,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>9</v>
@@ -1737,19 +1861,19 @@
         <v>0.1</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.2">
@@ -1757,7 +1881,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>10</v>
@@ -1766,19 +1890,19 @@
         <v>0.02</v>
       </c>
       <c r="F44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="H44" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H44" s="10" t="s">
+      <c r="I44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J44" s="10" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
@@ -1786,7 +1910,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>11</v>
@@ -1795,19 +1919,19 @@
         <v>0.02</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J45" s="16" t="s">
-        <v>108</v>
+        <v>26</v>
+      </c>
+      <c r="J45" s="15" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.2">
@@ -1815,7 +1939,7 @@
         <v>5</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>8</v>
@@ -1824,19 +1948,19 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F46" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G46" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G46" s="11" t="s">
+      <c r="H46" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="H46" s="12" t="s">
-        <v>86</v>
-      </c>
       <c r="I46" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.2">
@@ -1844,7 +1968,7 @@
         <v>6</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>9</v>
@@ -1853,19 +1977,19 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G47" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J47" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I47" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J47" s="11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.2">
@@ -1873,7 +1997,7 @@
         <v>7</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>10</v>
@@ -1882,19 +2006,19 @@
         <v>0.03</v>
       </c>
       <c r="F48" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G48" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="G48" s="12" t="s">
+      <c r="H48" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="H48" s="12" t="s">
+      <c r="I48" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J48" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="I48" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J48" s="12" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
@@ -1902,7 +2026,7 @@
         <v>8</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>11</v>
@@ -1911,30 +2035,30 @@
         <v>0.03</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C52" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
@@ -1954,10 +2078,10 @@
         <v>4</v>
       </c>
       <c r="G53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>5</v>
@@ -1971,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>8</v>
@@ -1980,19 +2104,19 @@
         <v>0.11</v>
       </c>
       <c r="F54" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G54" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G54" s="10" t="s">
+      <c r="H54" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="H54" s="10" t="s">
-        <v>93</v>
-      </c>
       <c r="I54" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.2">
@@ -2000,7 +2124,7 @@
         <v>2</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>9</v>
@@ -2009,19 +2133,19 @@
         <v>0.11</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.2">
@@ -2029,7 +2153,7 @@
         <v>3</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>10</v>
@@ -2038,19 +2162,19 @@
         <v>0</v>
       </c>
       <c r="F56" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G56" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G56" s="10" t="s">
+      <c r="H56" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="H56" s="10" t="s">
-        <v>98</v>
-      </c>
       <c r="I56" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
@@ -2058,7 +2182,7 @@
         <v>4</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>11</v>
@@ -2067,19 +2191,19 @@
         <v>0</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.2">
@@ -2087,7 +2211,7 @@
         <v>5</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>8</v>
@@ -2096,19 +2220,19 @@
         <v>0.11</v>
       </c>
       <c r="F58" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H58" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G58" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H58" s="12" t="s">
-        <v>95</v>
-      </c>
       <c r="I58" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.2">
@@ -2116,7 +2240,7 @@
         <v>6</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>9</v>
@@ -2125,19 +2249,19 @@
         <v>0.11</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G59" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J59" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="H59" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I59" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J59" s="11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.2">
@@ -2145,7 +2269,7 @@
         <v>7</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>10</v>
@@ -2154,19 +2278,19 @@
         <v>0.02</v>
       </c>
       <c r="F60" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G60" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="G60" s="12" t="s">
+      <c r="H60" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="H60" s="12" t="s">
-        <v>101</v>
-      </c>
       <c r="I60" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J60" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.2">
@@ -2174,7 +2298,7 @@
         <v>8</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>11</v>
@@ -2183,20 +2307,23 @@
         <v>0.02</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G61" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J61" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H61" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I61" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J61" s="11" t="s">
-        <v>30</v>
-      </c>
+    </row>
+    <row r="65" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J65"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2212,4 +2339,1654 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F14967-231D-534D-9D2B-F40074ECE8CC}">
+  <dimension ref="B3:M83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" customWidth="1"/>
+    <col min="7" max="7" width="28.83203125" customWidth="1"/>
+    <col min="8" max="8" width="24.83203125" customWidth="1"/>
+    <col min="9" max="9" width="38.83203125" customWidth="1"/>
+    <col min="11" max="11" width="37" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
+      <c r="K3" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="H9" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="H10" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="4">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="2:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="K15" s="27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="2">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="2">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="4">
+        <v>5</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="4">
+        <v>6</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="4">
+        <v>7</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="4">
+        <v>8</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="2:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="23"/>
+      <c r="K27" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" s="28" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="2">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="2">
+        <v>3</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="2">
+        <v>4</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B33" s="4">
+        <v>5</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B34" s="4">
+        <v>6</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B35" s="4">
+        <v>7</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B36" s="4">
+        <v>8</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="23"/>
+      <c r="K39" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" s="28" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B42" s="2">
+        <v>2</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B43" s="2">
+        <v>3</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B44" s="2">
+        <v>4</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M44" s="31"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B45" s="4">
+        <v>5</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="M45" s="31"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B46" s="4">
+        <v>6</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B47" s="4">
+        <v>7</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B48" s="4">
+        <v>8</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" s="28" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B54" s="2">
+        <v>2</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B55" s="2">
+        <v>3</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B56" s="2">
+        <v>4</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B57" s="4">
+        <v>5</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B58" s="4">
+        <v>6</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B59" s="4">
+        <v>7</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B60" s="4">
+        <v>8</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="23"/>
+      <c r="K63" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" s="28" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B65" s="2">
+        <v>1</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B66" s="2">
+        <v>2</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B67" s="2">
+        <v>3</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B68" s="2">
+        <v>4</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B69" s="4">
+        <v>5</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B70" s="4">
+        <v>6</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I70" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B71" s="4">
+        <v>7</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I71" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B72" s="4">
+        <v>8</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I72" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B78" s="26"/>
+      <c r="C78" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E78" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B79" s="26"/>
+      <c r="C79" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E79" s="32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B80" s="26"/>
+      <c r="C80" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E80" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="26"/>
+      <c r="C81" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D81" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E81" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B82" s="26"/>
+      <c r="C82" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E82" s="32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B83" s="26"/>
+      <c r="C83" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E83" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="E63:I63"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>